--- a/outputs/3_effective_rates_kendall.xlsx
+++ b/outputs/3_effective_rates_kendall.xlsx
@@ -2021,10 +2021,10 @@
     <t xml:space="preserve">tbl28_0470322400052</t>
   </si>
   <si>
+    <t xml:space="preserve">Municipal Library</t>
+  </si>
+  <si>
     <t xml:space="preserve">AURORA LIBRARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipal Library</t>
   </si>
   <si>
     <t xml:space="preserve">YORKVILLE LIBRARY</t>
@@ -15039,10 +15039,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>668</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B3" t="s">
         <v>670</v>
